--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/12,25/03,12,25 Ост КИ ПРС ЛП/Заказ ЛП 07,12. ОптДонецк№9.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/12,25/03,12,25 Ост КИ ПРС ЛП/Заказ ЛП 07,12. ОптДонецк№9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov_PRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\12,25\03,12,25 Ост КИ ПРС ЛП\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C313B2-11EF-4413-BBB4-282836FD7E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1565F4C-9259-4E34-BB0D-0B127FACC7C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1705,14 +1705,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K1679"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="61"/>
       <c r="B10" s="46" t="s">
         <v>20</v>
@@ -1855,7 +1855,7 @@
       <c r="I10" s="46"/>
       <c r="J10" s="47"/>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="str">
         <f t="shared" ref="A11:A42" si="0">RIGHT(D11,4)</f>
         <v>6415</v>
@@ -1886,7 +1886,7 @@
       <c r="J11" s="29"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4063</v>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6333</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4558</v>
@@ -1972,7 +1972,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6978</v>
@@ -1996,7 +1996,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4561</v>
@@ -2048,7 +2048,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4574</v>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6337</v>
@@ -2132,7 +2132,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6769</v>
@@ -2156,7 +2156,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6861</v>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6340</v>
@@ -2212,7 +2212,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6341</v>
@@ -2238,7 +2238,7 @@
       <c r="I24" s="76"/>
       <c r="J24" s="76"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6862</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4813</v>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="str">
         <f t="shared" si="0"/>
         <v>5851</v>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6268</v>
@@ -2418,7 +2418,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6324</v>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="str">
         <f t="shared" si="0"/>
         <v>7126</v>
@@ -2474,7 +2474,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6498</v>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="str">
         <f t="shared" si="0"/>
         <v>7125</v>
@@ -2530,7 +2530,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2675</v>
@@ -2554,7 +2554,7 @@
       <c r="I35" s="14"/>
       <c r="J35" s="29"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2571,7 +2571,7 @@
       <c r="I36" s="46"/>
       <c r="J36" s="47"/>
     </row>
-    <row r="37" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="68" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="str">
         <f t="shared" si="0"/>
         <v>7255</v>
@@ -2602,7 +2602,7 @@
       <c r="J37" s="67"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6602</v>
@@ -2629,7 +2629,7 @@
       <c r="J38" s="29"/>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6776</v>
@@ -2656,7 +2656,7 @@
       <c r="J39" s="29"/>
       <c r="K39" s="27"/>
     </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6303</v>
@@ -2687,7 +2687,7 @@
       <c r="J40" s="29"/>
       <c r="K40" s="27"/>
     </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="str">
         <f t="shared" si="0"/>
         <v>5819</v>
@@ -2718,7 +2718,7 @@
       <c r="J41" s="29"/>
       <c r="K41" s="27"/>
     </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6762</v>
@@ -2745,7 +2745,7 @@
       <c r="J42" s="29"/>
       <c r="K42" s="27"/>
     </row>
-    <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="str">
         <f t="shared" ref="A43:A74" si="1">RIGHT(D43,4)</f>
         <v>6765</v>
@@ -2772,7 +2772,7 @@
       <c r="J43" s="29"/>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="str">
         <f t="shared" si="1"/>
         <v>6759</v>
@@ -2799,7 +2799,7 @@
       <c r="J44" s="29"/>
       <c r="K44" s="27"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="str">
         <f t="shared" si="1"/>
         <v>7082</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="str">
         <f t="shared" si="1"/>
         <v>6767</v>
@@ -2853,7 +2853,7 @@
       <c r="I46" s="14"/>
       <c r="J46" s="29"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="str">
         <f t="shared" si="1"/>
         <v>7070</v>
@@ -2877,7 +2877,7 @@
       <c r="I47" s="14"/>
       <c r="J47" s="29"/>
     </row>
-    <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="str">
         <f t="shared" si="1"/>
         <v>6661</v>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="J50" s="29"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="str">
         <f t="shared" si="1"/>
         <v>6069</v>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="J51" s="29"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="59" t="str">
         <f t="shared" si="1"/>
         <v>7284</v>
@@ -3029,7 +3029,7 @@
       <c r="I52" s="14"/>
       <c r="J52" s="29"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="59" t="str">
         <f t="shared" si="1"/>
         <v>6764</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="J53" s="29"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="str">
         <f t="shared" si="1"/>
         <v>6829</v>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="J54" s="29"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="str">
         <f t="shared" si="1"/>
         <v>7075</v>
@@ -3113,7 +3113,7 @@
       <c r="I55" s="14"/>
       <c r="J55" s="29"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="str">
         <f t="shared" si="1"/>
         <v>7073</v>
@@ -3195,7 +3195,7 @@
       <c r="I58" s="14"/>
       <c r="J58" s="29"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="str">
         <f t="shared" si="1"/>
         <v>7080</v>
@@ -3221,7 +3221,7 @@
       <c r="I59" s="14"/>
       <c r="J59" s="29"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="59" t="str">
         <f t="shared" si="1"/>
         <v>6616</v>
@@ -3247,7 +3247,7 @@
       <c r="I60" s="14"/>
       <c r="J60" s="29"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="59" t="str">
         <f t="shared" si="1"/>
         <v>6761</v>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="J62" s="29"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="59" t="str">
         <f t="shared" si="1"/>
         <v>7066</v>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="J63" s="29"/>
     </row>
-    <row r="64" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3358,7 +3358,7 @@
       <c r="I64" s="46"/>
       <c r="J64" s="47"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A65" s="59" t="str">
         <f t="shared" si="1"/>
         <v>7001</v>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="J65" s="76"/>
     </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="59" t="str">
         <f t="shared" si="1"/>
         <v>6527</v>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="J66" s="29"/>
     </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="59" t="str">
         <f t="shared" si="1"/>
         <v>6550</v>
@@ -3444,7 +3444,7 @@
       <c r="I67" s="14"/>
       <c r="J67" s="29"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="59" t="str">
         <f t="shared" si="1"/>
         <v>6608</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="J68" s="29"/>
     </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3491,7 +3491,7 @@
       <c r="I69" s="46"/>
       <c r="J69" s="47"/>
     </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A70" s="59" t="str">
         <f t="shared" si="1"/>
         <v>6586</v>
@@ -3517,7 +3517,7 @@
       <c r="I70" s="14"/>
       <c r="J70" s="29"/>
     </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="59" t="str">
         <f t="shared" si="1"/>
         <v>7144</v>
@@ -3543,7 +3543,7 @@
       <c r="I71" s="14"/>
       <c r="J71" s="29"/>
     </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="59" t="str">
         <f t="shared" si="1"/>
         <v>7146</v>
@@ -3567,7 +3567,7 @@
       <c r="I72" s="14"/>
       <c r="J72" s="29"/>
     </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="59" t="str">
         <f t="shared" si="1"/>
         <v>7149</v>
@@ -3591,7 +3591,7 @@
       <c r="I73" s="14"/>
       <c r="J73" s="29"/>
     </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="59" t="str">
         <f t="shared" si="1"/>
         <v>7131</v>
@@ -3643,7 +3643,7 @@
       <c r="I75" s="14"/>
       <c r="J75" s="29"/>
     </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6666</v>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="J76" s="29"/>
     </row>
-    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7173</v>
@@ -3699,7 +3699,7 @@
       <c r="I77" s="14"/>
       <c r="J77" s="29"/>
     </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7232</v>
@@ -3725,7 +3725,7 @@
       <c r="I78" s="14"/>
       <c r="J78" s="29"/>
     </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6773</v>
@@ -3783,7 +3783,7 @@
       <c r="I80" s="14"/>
       <c r="J80" s="29"/>
     </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6683</v>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="J81" s="29"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="59" t="str">
         <f t="shared" si="2"/>
         <v>5489</v>
@@ -3837,7 +3837,7 @@
       <c r="I82" s="14"/>
       <c r="J82" s="29"/>
     </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6787</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="J83" s="76"/>
     </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6697</v>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="J84" s="29"/>
     </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6701</v>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="J85" s="29"/>
     </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7237</v>
@@ -3953,7 +3953,7 @@
       <c r="I86" s="14"/>
       <c r="J86" s="29"/>
     </row>
-    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6684</v>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="J87" s="29"/>
     </row>
-    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6689</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="J88" s="29"/>
     </row>
-    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7157</v>
@@ -4037,7 +4037,7 @@
       <c r="I89" s="14"/>
       <c r="J89" s="29"/>
     </row>
-    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7166</v>
@@ -4089,7 +4089,7 @@
       <c r="I91" s="14"/>
       <c r="J91" s="29"/>
     </row>
-    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7169</v>
@@ -4115,7 +4115,7 @@
       <c r="I92" s="14"/>
       <c r="J92" s="29"/>
     </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="59" t="str">
         <f t="shared" si="2"/>
         <v>5341</v>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="J93" s="29"/>
     </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="59" t="str">
         <f t="shared" si="2"/>
         <v>5544</v>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="J94" s="29"/>
     </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6790</v>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="J95" s="71"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7133</v>
@@ -4227,7 +4227,7 @@
       <c r="I96" s="14"/>
       <c r="J96" s="71"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6791</v>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="J97" s="71"/>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6792</v>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="J98" s="71"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6564</v>
@@ -4309,7 +4309,7 @@
       <c r="I99" s="14"/>
       <c r="J99" s="71"/>
     </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7238</v>
@@ -4335,7 +4335,7 @@
       <c r="I100" s="14"/>
       <c r="J100" s="71"/>
     </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6565</v>
@@ -4361,7 +4361,7 @@
       <c r="I101" s="14"/>
       <c r="J101" s="71"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7240</v>
@@ -4387,7 +4387,7 @@
       <c r="I102" s="14"/>
       <c r="J102" s="71"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7236</v>
@@ -4441,7 +4441,7 @@
       <c r="I104" s="14"/>
       <c r="J104" s="71"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6793</v>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="J105" s="71"/>
     </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6794</v>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="J106" s="71"/>
     </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="59" t="str">
         <f t="shared" ref="A107:A138" si="6">RIGHT(D107,4)</f>
         <v>6665</v>
@@ -4523,7 +4523,7 @@
       <c r="I107" s="14"/>
       <c r="J107" s="71"/>
     </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6795</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="J108" s="71"/>
     </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6796</v>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="J109" s="71"/>
     </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6804</v>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="J110" s="71"/>
     </row>
-    <row r="111" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6803</v>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="J111" s="71"/>
     </row>
-    <row r="112" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" s="68" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6807</v>
@@ -4664,7 +4664,7 @@
       <c r="J112" s="71"/>
       <c r="K112" s="27"/>
     </row>
-    <row r="113" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" s="68" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="59" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4682,7 +4682,7 @@
       <c r="J113" s="47"/>
       <c r="K113" s="27"/>
     </row>
-    <row r="114" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A114" s="59" t="str">
         <f t="shared" si="6"/>
         <v>5931</v>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="J115" s="76"/>
     </row>
-    <row r="116" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6454</v>
@@ -4774,7 +4774,7 @@
       </c>
       <c r="J116" s="29"/>
     </row>
-    <row r="117" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="59" t="str">
         <f t="shared" si="6"/>
         <v>5708</v>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="J117" s="29"/>
     </row>
-    <row r="118" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="59" t="str">
         <f t="shared" si="6"/>
         <v>0614</v>
@@ -4828,7 +4828,7 @@
       <c r="I118" s="14"/>
       <c r="J118" s="29"/>
     </row>
-    <row r="119" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="59" t="str">
         <f t="shared" si="6"/>
         <v>1146</v>
@@ -4852,7 +4852,7 @@
       <c r="I119" s="14"/>
       <c r="J119" s="29"/>
     </row>
-    <row r="120" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="59" t="str">
         <f t="shared" si="6"/>
         <v>4154</v>
@@ -4876,7 +4876,7 @@
       <c r="I120" s="14"/>
       <c r="J120" s="29"/>
     </row>
-    <row r="121" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6967</v>
@@ -4902,7 +4902,7 @@
       <c r="I121" s="14"/>
       <c r="J121" s="29"/>
     </row>
-    <row r="122" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="59" t="str">
         <f t="shared" si="6"/>
         <v>4993</v>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="J124" s="29"/>
     </row>
-    <row r="125" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="59" t="str">
         <f t="shared" si="6"/>
         <v>5682</v>
@@ -5018,7 +5018,7 @@
       <c r="I125" s="14"/>
       <c r="J125" s="29"/>
     </row>
-    <row r="126" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="59" t="str">
         <f t="shared" si="6"/>
         <v>5679</v>
@@ -5044,7 +5044,7 @@
       <c r="I126" s="14"/>
       <c r="J126" s="29"/>
     </row>
-    <row r="127" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="59" t="str">
         <f t="shared" si="6"/>
         <v>4117</v>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="J128" s="29"/>
     </row>
-    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6453</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="J129" s="29"/>
     </row>
-    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6557</v>
@@ -5190,7 +5190,7 @@
       <c r="I131" s="14"/>
       <c r="J131" s="29"/>
     </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6228</v>
@@ -5244,7 +5244,7 @@
       <c r="I133" s="14"/>
       <c r="J133" s="29"/>
     </row>
-    <row r="134" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="59" t="str">
         <f t="shared" si="6"/>
         <v>3287</v>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="J134" s="29"/>
     </row>
-    <row r="135" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="59" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5291,7 +5291,7 @@
       <c r="I135" s="46"/>
       <c r="J135" s="47"/>
     </row>
-    <row r="136" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A136" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6866</v>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="J137" s="29"/>
     </row>
-    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6025</v>
@@ -5371,7 +5371,7 @@
       <c r="I138" s="14"/>
       <c r="J138" s="29"/>
     </row>
-    <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="59" t="str">
         <f t="shared" ref="A139:A154" si="8">RIGHT(D139,4)</f>
         <v>6470</v>
@@ -5395,7 +5395,7 @@
       <c r="I139" s="14"/>
       <c r="J139" s="29"/>
     </row>
-    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="59" t="str">
         <f t="shared" si="8"/>
         <v>4584</v>
@@ -5419,7 +5419,7 @@
       <c r="I140" s="14"/>
       <c r="J140" s="29"/>
     </row>
-    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6472</v>
@@ -5443,7 +5443,7 @@
       <c r="I141" s="14"/>
       <c r="J141" s="29"/>
     </row>
-    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="59" t="str">
         <f t="shared" si="8"/>
         <v>5452</v>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="J142" s="29"/>
     </row>
-    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="59" t="str">
         <f t="shared" si="8"/>
         <v>5495</v>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6495</v>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="J144" s="29"/>
     </row>
-    <row r="145" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="59" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5550,7 +5550,7 @@
       <c r="I145" s="46"/>
       <c r="J145" s="47"/>
     </row>
-    <row r="146" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6448</v>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="J146" s="29"/>
     </row>
-    <row r="147" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6586</v>
@@ -5690,7 +5690,7 @@
       <c r="I150" s="14"/>
       <c r="J150" s="29"/>
     </row>
-    <row r="151" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="59" t="str">
         <f t="shared" si="8"/>
         <v>7090</v>
@@ -5748,7 +5748,7 @@
       <c r="I152" s="14"/>
       <c r="J152" s="29"/>
     </row>
-    <row r="153" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="59" t="str">
         <f t="shared" si="8"/>
         <v>7053</v>
@@ -21066,7 +21066,13 @@
       <c r="J1679" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:K155" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:K155" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
